--- a/raw_data/20200818_saline/20200818_Sensor2_Test_74.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_74.xlsx
@@ -1,825 +1,1241 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC5B2C-D0D6-41FC-A8B3-29B4AE45785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>66070.490846</v>
+        <v>66070.490846000001</v>
       </c>
       <c r="B2" s="1">
-        <v>18.352914</v>
+        <v>18.352913999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>1243.300000</v>
+        <v>1243.3</v>
       </c>
       <c r="D2" s="1">
-        <v>-310.750000</v>
+        <v>-310.75</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>66081.096799</v>
+        <v>66081.096799000006</v>
       </c>
       <c r="G2" s="1">
-        <v>18.355860</v>
+        <v>18.35586</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.990000</v>
+        <v>1268.99</v>
       </c>
       <c r="I2" s="1">
-        <v>-267.259000</v>
+        <v>-267.25900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>66091.888752</v>
+        <v>66091.888751999999</v>
       </c>
       <c r="L2" s="1">
-        <v>18.358858</v>
+        <v>18.358858000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.630000</v>
+        <v>1306.6300000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-205.842000</v>
+        <v>-205.84200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>66102.342932</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.361762</v>
+        <v>18.361761999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.690000</v>
+        <v>1318.69</v>
       </c>
       <c r="S2" s="1">
-        <v>-187.537000</v>
+        <v>-187.53700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>66112.528806</v>
+        <v>66112.528806000002</v>
       </c>
       <c r="V2" s="1">
-        <v>18.364591</v>
+        <v>18.364591000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.310000</v>
+        <v>1332.31</v>
       </c>
       <c r="X2" s="1">
-        <v>-173.637000</v>
+        <v>-173.637</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>66122.622362</v>
+        <v>66122.622361999995</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.367395</v>
+        <v>18.367394999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.960000</v>
+        <v>1349.96</v>
       </c>
       <c r="AC2" s="1">
-        <v>-171.010000</v>
+        <v>-171.01</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>66133.149451</v>
+        <v>66133.149451000005</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.370319</v>
+        <v>18.370318999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1363.520000</v>
+        <v>1363.52</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.544000</v>
+        <v>-180.54400000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>66143.939420</v>
+        <v>66143.939419999995</v>
       </c>
       <c r="AK2" s="1">
         <v>18.373317</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.977000</v>
+        <v>-209.977</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>66154.548883</v>
+        <v>66154.548882999996</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.376264</v>
+        <v>18.376263999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.780000</v>
+        <v>1406.78</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.364000</v>
+        <v>-253.364</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>66165.255029</v>
+        <v>66165.255029000007</v>
       </c>
       <c r="AU2" s="1">
-        <v>18.379238</v>
+        <v>18.379238000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1431.940000</v>
+        <v>1431.94</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.696000</v>
+        <v>-312.69600000000003</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>66175.957170</v>
+        <v>66175.957169999994</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.382210</v>
+        <v>18.382210000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.660000</v>
+        <v>1451.66</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.291000</v>
+        <v>-364.291</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>66186.555685</v>
+        <v>66186.555684999999</v>
       </c>
       <c r="BE2" s="1">
         <v>18.385154</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.550000</v>
+        <v>1538.55</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.635000</v>
+        <v>-609.63499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>66197.268773</v>
+        <v>66197.268773000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.388130</v>
+        <v>18.38813</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.430000</v>
+        <v>1695.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1048.230000</v>
+        <v>-1048.23</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>66208.310216</v>
+        <v>66208.310215999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.391197</v>
+        <v>18.391196999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.540000</v>
+        <v>1993.54</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1804.310000</v>
+        <v>-1804.31</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>66218.633979</v>
+        <v>66218.633979000006</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.394065</v>
+        <v>18.394065000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2383.490000</v>
+        <v>2383.4899999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2670.470000</v>
+        <v>-2670.47</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>66229.013245</v>
+        <v>66229.013244999995</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.396948</v>
+        <v>18.396947999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2868.240000</v>
+        <v>2868.24</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3616.300000</v>
+        <v>-3616.3</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>66239.875656</v>
+        <v>66239.875656000004</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.399965</v>
+        <v>18.399965000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4278.050000</v>
+        <v>4278.05</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5864.140000</v>
+        <v>-5864.14</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>66071.212538</v>
+        <v>66071.212538000007</v>
       </c>
       <c r="B3" s="1">
-        <v>18.353115</v>
+        <v>18.353114999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.240000</v>
+        <v>1243.24</v>
       </c>
       <c r="D3" s="1">
-        <v>-310.936000</v>
+        <v>-310.93599999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>66081.823934</v>
       </c>
       <c r="G3" s="1">
-        <v>18.356062</v>
+        <v>18.356062000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.370000</v>
+        <v>1269.3699999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-268.993000</v>
+        <v>-268.99299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>66092.238464</v>
+        <v>66092.238463999995</v>
       </c>
       <c r="L3" s="1">
-        <v>18.358955</v>
+        <v>18.358955000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.210000</v>
+        <v>1306.21</v>
       </c>
       <c r="N3" s="1">
-        <v>-205.953000</v>
+        <v>-205.953</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>66102.695586</v>
+        <v>66102.695586000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.361860</v>
+        <v>18.36186</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.610000</v>
+        <v>1318.61</v>
       </c>
       <c r="S3" s="1">
-        <v>-187.444000</v>
+        <v>-187.44399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>66112.889157</v>
+        <v>66112.889156999998</v>
       </c>
       <c r="V3" s="1">
-        <v>18.364691</v>
+        <v>18.364691000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.450000</v>
+        <v>1332.45</v>
       </c>
       <c r="X3" s="1">
-        <v>-173.636000</v>
+        <v>-173.636</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>66123.269639</v>
+        <v>66123.269639000006</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.367575</v>
+        <v>18.367574999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1350.020000</v>
+        <v>1350.02</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.924000</v>
+        <v>-170.92400000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>66133.840377</v>
@@ -828,680 +1244,680 @@
         <v>18.370511</v>
       </c>
       <c r="AG3" s="1">
-        <v>1363.430000</v>
+        <v>1363.43</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.260000</v>
+        <v>-180.26</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>66144.355593</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.373432</v>
+        <v>18.373432000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.560000</v>
+        <v>1384.56</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.972000</v>
+        <v>-209.97200000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>66154.959037</v>
+        <v>66154.959036999993</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.376378</v>
+        <v>18.376377999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.760000</v>
+        <v>1406.76</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.349000</v>
+        <v>-253.34899999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>66165.624512</v>
+        <v>66165.624511999995</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.379340</v>
+        <v>18.379339999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.718000</v>
+        <v>-312.71800000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>66176.324706</v>
+        <v>66176.324705999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.382312</v>
+        <v>18.382311999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.700000</v>
+        <v>1451.7</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.247000</v>
+        <v>-364.24700000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>66186.939589</v>
+        <v>66186.939589000001</v>
       </c>
       <c r="BE3" s="1">
         <v>18.385261</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.580000</v>
+        <v>1538.58</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.634000</v>
+        <v>-609.63400000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>66197.696325</v>
+        <v>66197.696324999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.388249</v>
+        <v>18.388248999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.390000</v>
+        <v>1695.39</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1048.280000</v>
+        <v>-1048.28</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>66208.427767</v>
+        <v>66208.427767000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.391230</v>
+        <v>18.39123</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.340000</v>
+        <v>1993.34</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1804.380000</v>
+        <v>-1804.38</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>66218.815977</v>
+        <v>66218.815977000006</v>
       </c>
       <c r="BT3" s="1">
         <v>18.394116</v>
       </c>
       <c r="BU3" s="1">
-        <v>2383.430000</v>
+        <v>2383.4299999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2670.580000</v>
+        <v>-2670.58</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>66229.499307</v>
+        <v>66229.499307000006</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.397083</v>
+        <v>18.397082999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2867.500000</v>
+        <v>2867.5</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3616.740000</v>
+        <v>-3616.74</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>66240.434606</v>
+        <v>66240.434605999995</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.400121</v>
+        <v>18.400120999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4269.500000</v>
+        <v>4269.5</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5881.030000</v>
+        <v>-5881.03</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>66071.559724</v>
+        <v>66071.559724000006</v>
       </c>
       <c r="B4" s="1">
-        <v>18.353211</v>
+        <v>18.353211000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.210000</v>
+        <v>1243.21</v>
       </c>
       <c r="D4" s="1">
-        <v>-311.168000</v>
+        <v>-311.16800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>66082.165678</v>
+        <v>66082.165678000005</v>
       </c>
       <c r="G4" s="1">
         <v>18.356157</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.090000</v>
+        <v>1269.0899999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-269.284000</v>
+        <v>-269.28399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>66092.583184</v>
+        <v>66092.583184000003</v>
       </c>
       <c r="L4" s="1">
-        <v>18.359051</v>
+        <v>18.359051000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.540000</v>
+        <v>1306.54</v>
       </c>
       <c r="N4" s="1">
-        <v>-206.104000</v>
+        <v>-206.10400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>66103.034393</v>
+        <v>66103.034392999994</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.361954</v>
+        <v>18.361954000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.650000</v>
+        <v>1318.65</v>
       </c>
       <c r="S4" s="1">
-        <v>-187.460000</v>
+        <v>-187.46</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>66113.551028</v>
+        <v>66113.551028000002</v>
       </c>
       <c r="V4" s="1">
-        <v>18.364875</v>
+        <v>18.364875000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.350000</v>
+        <v>1332.35</v>
       </c>
       <c r="X4" s="1">
-        <v>-173.565000</v>
+        <v>-173.565</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>66123.658504</v>
+        <v>66123.658504000006</v>
       </c>
       <c r="AA4" s="1">
         <v>18.367683</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.850000</v>
+        <v>1349.85</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.910000</v>
+        <v>-170.91</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>66134.222298</v>
+        <v>66134.222297999993</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.370617</v>
+        <v>18.370616999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1363.350000</v>
+        <v>1363.35</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.476000</v>
+        <v>-180.476</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>66144.706730</v>
+        <v>66144.706730000005</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.373530</v>
+        <v>18.373529999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.980000</v>
+        <v>-209.98</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>66155.317180</v>
+        <v>66155.317179999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.376477</v>
+        <v>18.376477000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.750000</v>
+        <v>1406.75</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.366000</v>
+        <v>-253.36600000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>66165.987624</v>
+        <v>66165.987624000001</v>
       </c>
       <c r="AU4" s="1">
         <v>18.379441</v>
       </c>
       <c r="AV4" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.727000</v>
+        <v>-312.72699999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>66176.741872</v>
+        <v>66176.741871999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.382428</v>
+        <v>18.382428000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.720000</v>
+        <v>1451.72</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.228000</v>
+        <v>-364.22800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>66187.366643</v>
+        <v>66187.366643000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.385380</v>
+        <v>18.385380000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.650000</v>
+        <v>-609.65</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>66198.043028</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.388345</v>
+        <v>18.388345000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.310000</v>
+        <v>1695.31</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1048.240000</v>
+        <v>-1048.24</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>66208.831048</v>
+        <v>66208.831047999993</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.391342</v>
+        <v>18.391342000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.230000</v>
+        <v>1993.23</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1804.610000</v>
+        <v>-1804.61</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>66219.231624</v>
+        <v>66219.231623999993</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.394231</v>
+        <v>18.394231000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2383.440000</v>
+        <v>2383.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2670.200000</v>
+        <v>-2670.2</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>66229.950171</v>
+        <v>66229.950171000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.397208</v>
+        <v>18.397207999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2867.360000</v>
+        <v>2867.36</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3617.030000</v>
+        <v>-3617.03</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>66240.974780</v>
+        <v>66240.974780000004</v>
       </c>
       <c r="CD4" s="1">
         <v>18.400271</v>
       </c>
       <c r="CE4" s="1">
-        <v>4285.350000</v>
+        <v>4285.3500000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5875.730000</v>
+        <v>-5875.73</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>66071.897499</v>
+        <v>66071.897498999999</v>
       </c>
       <c r="B5" s="1">
-        <v>18.353305</v>
+        <v>18.353304999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.240000</v>
+        <v>1243.24</v>
       </c>
       <c r="D5" s="1">
-        <v>-310.814000</v>
+        <v>-310.81400000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>66082.512877</v>
+        <v>66082.512877000001</v>
       </c>
       <c r="G5" s="1">
         <v>18.356254</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.780000</v>
+        <v>1269.78</v>
       </c>
       <c r="I5" s="1">
-        <v>-268.370000</v>
+        <v>-268.37</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>66093.246831</v>
+        <v>66093.246830999997</v>
       </c>
       <c r="L5" s="1">
-        <v>18.359235</v>
+        <v>18.359235000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.300000</v>
+        <v>1306.3</v>
       </c>
       <c r="N5" s="1">
-        <v>-205.927000</v>
+        <v>-205.92699999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>66103.482241</v>
+        <v>66103.482241000005</v>
       </c>
       <c r="Q5" s="1">
         <v>18.362078</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.670000</v>
+        <v>1318.67</v>
       </c>
       <c r="S5" s="1">
-        <v>-187.396000</v>
+        <v>-187.39599999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>66113.919555</v>
       </c>
       <c r="V5" s="1">
-        <v>18.364978</v>
+        <v>18.364978000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="X5" s="1">
-        <v>-173.763000</v>
+        <v>-173.76300000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>66124.004813</v>
+        <v>66124.004813000007</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.367779</v>
+        <v>18.367778999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1350.150000</v>
+        <v>1350.15</v>
       </c>
       <c r="AC5" s="1">
-        <v>-171.093000</v>
+        <v>-171.09299999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>66134.561560</v>
+        <v>66134.561560000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.370712</v>
+        <v>18.370712000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1363.350000</v>
+        <v>1363.35</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.426000</v>
+        <v>-180.42599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>66145.053930</v>
+        <v>66145.053929999995</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.373626</v>
+        <v>18.373626000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.550000</v>
+        <v>1384.55</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.945000</v>
+        <v>-209.94499999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>66155.741756</v>
+        <v>66155.741756000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.376595</v>
+        <v>18.376594999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.760000</v>
+        <v>1406.76</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.342000</v>
+        <v>-253.34200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>66166.414638</v>
+        <v>66166.414638000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.379560</v>
+        <v>18.379560000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.704000</v>
+        <v>-312.70400000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>66177.043408</v>
+        <v>66177.043407999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.382512</v>
+        <v>18.382511999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.700000</v>
+        <v>1451.7</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.255000</v>
+        <v>-364.255</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>66187.661266</v>
+        <v>66187.661265999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.385461</v>
+        <v>18.385460999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.623000</v>
+        <v>-609.62300000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>66198.420484</v>
+        <v>66198.420484000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.388450</v>
+        <v>18.388449999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.300000</v>
+        <v>1695.3</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1048.250000</v>
+        <v>-1048.25</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>66209.230790</v>
+        <v>66209.230790000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.391453</v>
+        <v>18.391452999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.270000</v>
+        <v>1993.27</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1804.730000</v>
+        <v>-1804.73</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>66219.646357</v>
+        <v>66219.646357000005</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.394346</v>
+        <v>18.394345999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2383.640000</v>
+        <v>2383.64</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2670.850000</v>
+        <v>-2670.85</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>66230.362874</v>
+        <v>66230.362873999999</v>
       </c>
       <c r="BY5" s="1">
         <v>18.397323</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2868.220000</v>
+        <v>2868.22</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3616.750000</v>
+        <v>-3616.75</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>66241.515884</v>
+        <v>66241.515883999993</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.400421</v>
+        <v>18.400421000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4268.720000</v>
+        <v>4268.72</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5865.160000</v>
+        <v>-5865.16</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>66072.548746</v>
       </c>
@@ -1509,345 +1925,345 @@
         <v>18.353486</v>
       </c>
       <c r="C6" s="1">
-        <v>1243.080000</v>
+        <v>1243.08</v>
       </c>
       <c r="D6" s="1">
-        <v>-310.544000</v>
+        <v>-310.54399999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>66083.178544</v>
+        <v>66083.178543999995</v>
       </c>
       <c r="G6" s="1">
-        <v>18.356438</v>
+        <v>18.356438000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.290000</v>
+        <v>1270.29</v>
       </c>
       <c r="I6" s="1">
-        <v>-268.060000</v>
+        <v>-268.06</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>66093.616814</v>
+        <v>66093.616813999994</v>
       </c>
       <c r="L6" s="1">
-        <v>18.359338</v>
+        <v>18.359338000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.360000</v>
+        <v>1306.3599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-205.681000</v>
+        <v>-205.68100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>66103.739984</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.362150</v>
+        <v>18.36215</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.660000</v>
+        <v>1318.66</v>
       </c>
       <c r="S6" s="1">
-        <v>-187.413000</v>
+        <v>-187.41300000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>66114.268739</v>
+        <v>66114.268739000006</v>
       </c>
       <c r="V6" s="1">
-        <v>18.365075</v>
+        <v>18.365075000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.320000</v>
+        <v>1332.32</v>
       </c>
       <c r="X6" s="1">
-        <v>-173.499000</v>
+        <v>-173.499</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>66124.352406</v>
+        <v>66124.352406000005</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.367876</v>
+        <v>18.367875999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.960000</v>
+        <v>1349.96</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.948000</v>
+        <v>-170.94800000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>66134.907768</v>
+        <v>66134.907768000005</v>
       </c>
       <c r="AF6" s="1">
         <v>18.370808</v>
       </c>
       <c r="AG6" s="1">
-        <v>1363.330000</v>
+        <v>1363.33</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.415000</v>
+        <v>-180.41499999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>66145.486938</v>
+        <v>66145.486938000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.373746</v>
+        <v>18.373746000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.560000</v>
+        <v>1384.56</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.947000</v>
+        <v>-209.947</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>66156.040316</v>
+        <v>66156.040315999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.376678</v>
+        <v>18.376677999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.760000</v>
+        <v>1406.76</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.360000</v>
+        <v>-253.36</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>66166.716734</v>
+        <v>66166.716734000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.379644</v>
+        <v>18.379643999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1431.940000</v>
+        <v>1431.94</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.693000</v>
+        <v>-312.69299999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>66177.404993</v>
+        <v>66177.404993000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.382612</v>
+        <v>18.382612000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.700000</v>
+        <v>1451.7</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>66188.022887</v>
+        <v>66188.022886999999</v>
       </c>
       <c r="BE6" s="1">
         <v>18.385562</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.560000</v>
+        <v>1538.56</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.617000</v>
+        <v>-609.61699999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>66198.792981</v>
+        <v>66198.792981000006</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.388554</v>
+        <v>18.388553999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.280000</v>
+        <v>1695.28</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1048.240000</v>
+        <v>-1048.24</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>66209.647958</v>
+        <v>66209.647958000001</v>
       </c>
       <c r="BO6" s="1">
         <v>18.391569</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.160000</v>
+        <v>1993.16</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1804.610000</v>
+        <v>-1804.61</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>66220.062423</v>
+        <v>66220.062422999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.394462</v>
+        <v>18.394462000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2383.520000</v>
+        <v>2383.52</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2670.270000</v>
+        <v>-2670.27</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>66230.787913</v>
+        <v>66230.787912999993</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.397441</v>
+        <v>18.397441000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2868.120000</v>
+        <v>2868.12</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3616.710000</v>
+        <v>-3616.71</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>66242.053579</v>
+        <v>66242.053578999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.400570</v>
+        <v>18.400569999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>4280.540000</v>
+        <v>4280.54</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5885.640000</v>
+        <v>-5885.64</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>66072.923232</v>
+        <v>66072.923232000001</v>
       </c>
       <c r="B7" s="1">
-        <v>18.353590</v>
+        <v>18.353590000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-311.050000</v>
+        <v>-311.05</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>66083.546045</v>
+        <v>66083.546044999996</v>
       </c>
       <c r="G7" s="1">
         <v>18.356541</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.550000</v>
+        <v>1269.55</v>
       </c>
       <c r="I7" s="1">
-        <v>-269.036000</v>
+        <v>-269.036</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>66093.965502</v>
+        <v>66093.965502000006</v>
       </c>
       <c r="L7" s="1">
-        <v>18.359435</v>
+        <v>18.359435000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.020000</v>
+        <v>1306.02</v>
       </c>
       <c r="N7" s="1">
-        <v>-205.850000</v>
+        <v>-205.85</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>66104.085907</v>
+        <v>66104.085907000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.362246</v>
+        <v>18.362245999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.670000</v>
+        <v>1318.67</v>
       </c>
       <c r="S7" s="1">
-        <v>-187.476000</v>
+        <v>-187.476</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>66114.613491</v>
+        <v>66114.613490999996</v>
       </c>
       <c r="V7" s="1">
-        <v>18.365170</v>
+        <v>18.365169999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1332.170000</v>
+        <v>1332.17</v>
       </c>
       <c r="X7" s="1">
-        <v>-173.593000</v>
+        <v>-173.59299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>66124.772517</v>
+        <v>66124.772517000005</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.367992</v>
+        <v>18.367992000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1350.010000</v>
+        <v>1350.01</v>
       </c>
       <c r="AC7" s="1">
-        <v>-171.045000</v>
+        <v>-171.04499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>66135.330359</v>
@@ -1856,73 +2272,73 @@
         <v>18.370925</v>
       </c>
       <c r="AG7" s="1">
-        <v>1363.330000</v>
+        <v>1363.33</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.469000</v>
+        <v>-180.46899999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>66145.767179</v>
+        <v>66145.767179000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.373824</v>
+        <v>18.373823999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.580000</v>
+        <v>1384.58</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.996000</v>
+        <v>-209.99600000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>66156.398429</v>
+        <v>66156.398428999993</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.376777</v>
+        <v>18.376777000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.770000</v>
+        <v>1406.77</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.361000</v>
+        <v>-253.36099999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>66167.082285</v>
+        <v>66167.082284999997</v>
       </c>
       <c r="AU7" s="1">
         <v>18.379745</v>
       </c>
       <c r="AV7" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.696000</v>
+        <v>-312.69600000000003</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>66177.761120</v>
+        <v>66177.761119999996</v>
       </c>
       <c r="AZ7" s="1">
         <v>18.382711</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.680000</v>
+        <v>1451.68</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.233000</v>
+        <v>-364.233</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>66188.716258</v>
@@ -1931,91 +2347,91 @@
         <v>18.385755</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.500000</v>
+        <v>1538.5</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.623000</v>
+        <v>-609.62300000000005</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>66199.567731</v>
+        <v>66199.567731000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>18.388769</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1048.160000</v>
+        <v>-1048.1600000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>66210.043236</v>
+        <v>66210.043235999998</v>
       </c>
       <c r="BO7" s="1">
         <v>18.391679</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.140000</v>
+        <v>1993.14</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1804.560000</v>
+        <v>-1804.56</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>66220.478072</v>
+        <v>66220.478071999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.394577</v>
+        <v>18.394577000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>2383.630000</v>
+        <v>2383.63</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2670.340000</v>
+        <v>-2670.34</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>66231.218442</v>
+        <v>66231.218441999998</v>
       </c>
       <c r="BY7" s="1">
         <v>18.397561</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2867.690000</v>
+        <v>2867.69</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3616.040000</v>
+        <v>-3616.04</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>66242.898272</v>
+        <v>66242.898272000006</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.400805</v>
+        <v>18.400804999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>4264.330000</v>
+        <v>4264.33</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5872.880000</v>
+        <v>-5872.88</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>66073.267945</v>
       </c>
@@ -2023,994 +2439,994 @@
         <v>18.353686</v>
       </c>
       <c r="C8" s="1">
-        <v>1243.210000</v>
+        <v>1243.21</v>
       </c>
       <c r="D8" s="1">
-        <v>-310.914000</v>
+        <v>-310.91399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>66083.892253</v>
+        <v>66083.892252999998</v>
       </c>
       <c r="G8" s="1">
-        <v>18.356637</v>
+        <v>18.356636999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.030000</v>
+        <v>1269.03</v>
       </c>
       <c r="I8" s="1">
-        <v>-268.255000</v>
+        <v>-268.255</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>66094.310750</v>
+        <v>66094.310750000004</v>
       </c>
       <c r="L8" s="1">
         <v>18.359531</v>
       </c>
       <c r="M8" s="1">
-        <v>1306.130000</v>
+        <v>1306.1300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-205.728000</v>
+        <v>-205.72800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>66104.502545</v>
+        <v>66104.502544999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.362362</v>
+        <v>18.362362000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.650000</v>
+        <v>1318.65</v>
       </c>
       <c r="S8" s="1">
-        <v>-187.529000</v>
+        <v>-187.529</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>66115.038945</v>
+        <v>66115.038944999993</v>
       </c>
       <c r="V8" s="1">
-        <v>18.365289</v>
+        <v>18.365289000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.430000</v>
+        <v>1332.43</v>
       </c>
       <c r="X8" s="1">
-        <v>-173.558000</v>
+        <v>-173.55799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>66125.052789</v>
+        <v>66125.052788999994</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.368070</v>
+        <v>18.368069999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1350.090000</v>
+        <v>1350.09</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.892000</v>
+        <v>-170.892</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>66135.618039</v>
+        <v>66135.618038999994</v>
       </c>
       <c r="AF8" s="1">
         <v>18.371005</v>
       </c>
       <c r="AG8" s="1">
-        <v>1363.380000</v>
+        <v>1363.38</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.428000</v>
+        <v>-180.428</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>66146.114874</v>
+        <v>66146.114874000006</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.373921</v>
+        <v>18.373920999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.560000</v>
+        <v>1384.56</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.960000</v>
+        <v>-209.96</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>66156.761531</v>
+        <v>66156.761530999996</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.376878</v>
+        <v>18.376878000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.750000</v>
+        <v>1406.75</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.327000</v>
+        <v>-253.327</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>66167.444830</v>
+        <v>66167.444829999993</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.379846</v>
+        <v>18.379846000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.693000</v>
+        <v>-312.69299999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>66178.485782</v>
+        <v>66178.485782000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.382913</v>
+        <v>18.382912999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.650000</v>
+        <v>1451.65</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.217000</v>
+        <v>-364.21699999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>66189.134384</v>
+        <v>66189.134384000005</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.385871</v>
+        <v>18.385871000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.510000</v>
+        <v>1538.51</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.618000</v>
+        <v>-609.61800000000005</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>66199.941713</v>
+        <v>66199.941712999993</v>
       </c>
       <c r="BJ8" s="1">
         <v>18.388873</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.350000</v>
+        <v>1695.35</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1048.340000</v>
+        <v>-1048.3399999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>66210.465827</v>
+        <v>66210.465827000007</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.391796</v>
+        <v>18.391795999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.100000</v>
+        <v>1993.1</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1804.500000</v>
+        <v>-1804.5</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>66220.915543</v>
+        <v>66220.915542999996</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.394699</v>
+        <v>18.394698999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2383.730000</v>
+        <v>2383.73</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2670.610000</v>
+        <v>-2670.61</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>66231.951058</v>
+        <v>66231.951058000006</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.397764</v>
+        <v>18.397763999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2867.080000</v>
+        <v>2867.08</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3616.610000</v>
+        <v>-3616.61</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>66243.133337</v>
+        <v>66243.133337000007</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.400870</v>
+        <v>18.400870000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4265.790000</v>
+        <v>4265.79</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5869.950000</v>
+        <v>-5869.95</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>66073.612665</v>
+        <v>66073.612664999993</v>
       </c>
       <c r="B9" s="1">
-        <v>18.353781</v>
+        <v>18.353781000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="D9" s="1">
-        <v>-310.806000</v>
+        <v>-310.80599999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>66084.236972</v>
+        <v>66084.236971999999</v>
       </c>
       <c r="G9" s="1">
-        <v>18.356732</v>
+        <v>18.356732000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.530000</v>
+        <v>1269.53</v>
       </c>
       <c r="I9" s="1">
-        <v>-269.047000</v>
+        <v>-269.04700000000003</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>66094.731821</v>
+        <v>66094.731820999994</v>
       </c>
       <c r="L9" s="1">
         <v>18.359648</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.670000</v>
+        <v>1306.67</v>
       </c>
       <c r="N9" s="1">
-        <v>-205.561000</v>
+        <v>-205.56100000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>66104.785268</v>
+        <v>66104.785268000007</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.362440</v>
+        <v>18.362439999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.560000</v>
+        <v>1318.56</v>
       </c>
       <c r="S9" s="1">
-        <v>-187.498000</v>
+        <v>-187.49799999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>66115.311362</v>
+        <v>66115.311361999993</v>
       </c>
       <c r="V9" s="1">
         <v>18.365364</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.280000</v>
+        <v>1332.28</v>
       </c>
       <c r="X9" s="1">
-        <v>-173.403000</v>
+        <v>-173.40299999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>66125.397974</v>
+        <v>66125.397974000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.368166</v>
+        <v>18.368165999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.940000</v>
+        <v>1349.94</v>
       </c>
       <c r="AC9" s="1">
-        <v>-171.001000</v>
+        <v>-171.001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>66135.966726</v>
+        <v>66135.966725999999</v>
       </c>
       <c r="AF9" s="1">
         <v>18.371102</v>
       </c>
       <c r="AG9" s="1">
-        <v>1363.340000</v>
+        <v>1363.34</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.433000</v>
+        <v>-180.43299999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>66146.464091</v>
+        <v>66146.464091000002</v>
       </c>
       <c r="AK9" s="1">
         <v>18.374018</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.934000</v>
+        <v>-209.934</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>66157.485190</v>
+        <v>66157.485190000007</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.377079</v>
+        <v>18.377078999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.760000</v>
+        <v>1406.76</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.364000</v>
+        <v>-253.364</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>66168.173453</v>
+        <v>66168.173452999996</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.380048</v>
+        <v>18.380047999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.698000</v>
+        <v>-312.69799999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>66178.861742</v>
+        <v>66178.861741999994</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.383017</v>
+        <v>18.383016999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.720000</v>
+        <v>1451.72</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.173000</v>
+        <v>-364.173</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>66189.527711</v>
+        <v>66189.527711000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.385980</v>
+        <v>18.38598</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.510000</v>
+        <v>1538.51</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.623000</v>
+        <v>-609.62300000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>66200.317716</v>
+        <v>66200.317716000005</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.388977</v>
+        <v>18.388977000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.250000</v>
+        <v>1695.25</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1048.230000</v>
+        <v>-1048.23</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>66211.174149</v>
+        <v>66211.174148999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.391993</v>
+        <v>18.391992999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.120000</v>
+        <v>1993.12</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1804.490000</v>
+        <v>-1804.49</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>66221.655607</v>
+        <v>66221.655606999993</v>
       </c>
       <c r="BT9" s="1">
         <v>18.394904</v>
       </c>
       <c r="BU9" s="1">
-        <v>2383.830000</v>
+        <v>2383.83</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2670.460000</v>
+        <v>-2670.46</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>66232.080025</v>
+        <v>66232.080025000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.397800</v>
+        <v>18.3978</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2867.430000</v>
+        <v>2867.43</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3616.550000</v>
+        <v>-3616.55</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>66243.655128</v>
+        <v>66243.655127999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.401015</v>
+        <v>18.401015000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4271.360000</v>
+        <v>4271.3599999999997</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5885.180000</v>
+        <v>-5885.18</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>66074.038264</v>
+        <v>66074.038264000003</v>
       </c>
       <c r="B10" s="1">
-        <v>18.353900</v>
+        <v>18.353899999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1243.320000</v>
+        <v>1243.32</v>
       </c>
       <c r="D10" s="1">
-        <v>-311.101000</v>
+        <v>-311.101</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>66084.661548</v>
+        <v>66084.661548000004</v>
       </c>
       <c r="G10" s="1">
-        <v>18.356850</v>
+        <v>18.356850000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1270.170000</v>
+        <v>1270.17</v>
       </c>
       <c r="I10" s="1">
-        <v>-268.670000</v>
+        <v>-268.67</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>66095.007101</v>
+        <v>66095.007100999996</v>
       </c>
       <c r="L10" s="1">
         <v>18.359724</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.290000</v>
+        <v>1306.29</v>
       </c>
       <c r="N10" s="1">
-        <v>-206.014000</v>
+        <v>-206.01400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>66105.131439</v>
+        <v>66105.131439000004</v>
       </c>
       <c r="Q10" s="1">
         <v>18.362537</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.560000</v>
+        <v>1318.56</v>
       </c>
       <c r="S10" s="1">
-        <v>-187.413000</v>
+        <v>-187.41300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>66115.652577</v>
+        <v>66115.652577000001</v>
       </c>
       <c r="V10" s="1">
-        <v>18.365459</v>
+        <v>18.365459000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="X10" s="1">
-        <v>-173.476000</v>
+        <v>-173.476</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>66125.749140</v>
+        <v>66125.74914</v>
       </c>
       <c r="AA10" s="1">
         <v>18.368264</v>
       </c>
       <c r="AB10" s="1">
-        <v>1350.060000</v>
+        <v>1350.06</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.987000</v>
+        <v>-170.98699999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>66136.309958</v>
+        <v>66136.309957999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.371197</v>
+        <v>18.371196999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1363.370000</v>
+        <v>1363.37</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.481000</v>
+        <v>-180.48099999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>66147.159449</v>
+        <v>66147.159448999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.374211</v>
+        <v>18.374210999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.550000</v>
+        <v>1384.55</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.941000</v>
+        <v>-209.941</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>66157.863145</v>
+        <v>66157.863144999996</v>
       </c>
       <c r="AP10" s="1">
         <v>18.377184</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.760000</v>
+        <v>1406.76</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.329000</v>
+        <v>-253.32900000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>66168.567523</v>
+        <v>66168.567523000005</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.380158</v>
+        <v>18.380158000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1431.940000</v>
+        <v>1431.94</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.704000</v>
+        <v>-312.70400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>66179.240191</v>
+        <v>66179.240191000004</v>
       </c>
       <c r="AZ10" s="1">
         <v>18.383122</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.680000</v>
+        <v>1451.68</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.242000</v>
+        <v>-364.24200000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>66190.203759</v>
+        <v>66190.203758999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.386168</v>
+        <v>18.386168000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.550000</v>
+        <v>1538.55</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.596000</v>
+        <v>-609.596</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>66201.032418</v>
+        <v>66201.032418000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.389176</v>
+        <v>18.389175999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.250000</v>
+        <v>1695.25</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1048.230000</v>
+        <v>-1048.23</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>66211.283267</v>
+        <v>66211.283267000006</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.392023</v>
+        <v>18.392022999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.240000</v>
+        <v>1993.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1804.630000</v>
+        <v>-1804.63</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>66221.788998</v>
+        <v>66221.788998000004</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.394941</v>
+        <v>18.394940999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2383.860000</v>
+        <v>2383.86</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2670.410000</v>
+        <v>-2670.41</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>66232.500134</v>
+        <v>66232.500134000002</v>
       </c>
       <c r="BY10" s="1">
         <v>18.397917</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2867.700000</v>
+        <v>2867.7</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3615.920000</v>
+        <v>-3615.92</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>66244.171994</v>
+        <v>66244.171994000004</v>
       </c>
       <c r="CD10" s="1">
         <v>18.401159</v>
       </c>
       <c r="CE10" s="1">
-        <v>4265.950000</v>
+        <v>4265.95</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5877.570000</v>
+        <v>-5877.57</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>66074.309291</v>
+        <v>66074.309290999998</v>
       </c>
       <c r="B11" s="1">
-        <v>18.353975</v>
+        <v>18.353974999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1243.060000</v>
+        <v>1243.06</v>
       </c>
       <c r="D11" s="1">
-        <v>-311.144000</v>
+        <v>-311.14400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>66084.941651</v>
+        <v>66084.941651000001</v>
       </c>
       <c r="G11" s="1">
         <v>18.356928</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.590000</v>
+        <v>1269.5899999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-268.622000</v>
+        <v>-268.62200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>66095.355293</v>
+        <v>66095.355293000001</v>
       </c>
       <c r="L11" s="1">
         <v>18.359821</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.280000</v>
+        <v>1306.28</v>
       </c>
       <c r="N11" s="1">
-        <v>-205.704000</v>
+        <v>-205.70400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>66105.480127</v>
+        <v>66105.480127000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.362633</v>
+        <v>18.362632999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.700000</v>
+        <v>1318.7</v>
       </c>
       <c r="S11" s="1">
-        <v>-187.366000</v>
+        <v>-187.36600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>66115.997334</v>
       </c>
       <c r="V11" s="1">
-        <v>18.365555</v>
+        <v>18.365555000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="X11" s="1">
-        <v>-173.583000</v>
+        <v>-173.583</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>66126.445524</v>
+        <v>66126.445523999995</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.368457</v>
+        <v>18.368456999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1350.180000</v>
+        <v>1350.18</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.977000</v>
+        <v>-170.977</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>66137.007830</v>
+        <v>66137.007830000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.371391</v>
+        <v>18.371390999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1363.410000</v>
+        <v>1363.41</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.408000</v>
+        <v>-180.40799999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>66147.506647</v>
+        <v>66147.506647000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.374307</v>
+        <v>18.374307000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.950000</v>
+        <v>-209.95</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>66158.223210</v>
+        <v>66158.223209999996</v>
       </c>
       <c r="AP11" s="1">
         <v>18.377284</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.790000</v>
+        <v>1406.79</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.318000</v>
+        <v>-253.31800000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>66168.933336</v>
+        <v>66168.933336000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.380259</v>
+        <v>18.380258999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.684000</v>
+        <v>-312.68400000000003</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>66179.910318</v>
+        <v>66179.910317999995</v>
       </c>
       <c r="AZ11" s="1">
         <v>18.383308</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.700000</v>
+        <v>1451.7</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.218000</v>
+        <v>-364.21800000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>66190.640238</v>
+        <v>66190.640238000007</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.386289</v>
+        <v>18.386289000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.633000</v>
+        <v>-609.63300000000004</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>66201.468400</v>
+        <v>66201.468399999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.389297</v>
+        <v>18.389296999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.300000</v>
+        <v>1695.3</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1048.230000</v>
+        <v>-1048.23</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>66211.707810</v>
+        <v>66211.707810000007</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.392141</v>
+        <v>18.392140999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.090000</v>
+        <v>1993.09</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1804.460000</v>
+        <v>-1804.46</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>66222.216052</v>
+        <v>66222.216052000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.395060</v>
+        <v>18.395060000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2384.180000</v>
+        <v>2384.1799999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2670.530000</v>
+        <v>-2670.53</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>66232.927656</v>
@@ -3019,1480 +3435,1480 @@
         <v>18.398035</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2866.880000</v>
+        <v>2866.88</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3615.970000</v>
+        <v>-3615.97</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>66244.723542</v>
+        <v>66244.723542000007</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.401312</v>
+        <v>18.401312000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4267.330000</v>
+        <v>4267.33</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5865.520000</v>
+        <v>-5865.52</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>66074.654263</v>
+        <v>66074.654263000004</v>
       </c>
       <c r="B12" s="1">
-        <v>18.354071</v>
+        <v>18.354071000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-310.505000</v>
+        <v>-310.505</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>66085.285514</v>
+        <v>66085.285514000003</v>
       </c>
       <c r="G12" s="1">
-        <v>18.357024</v>
+        <v>18.357023999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="I12" s="1">
-        <v>-268.174000</v>
+        <v>-268.17399999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>66095.701499</v>
+        <v>66095.701499000003</v>
       </c>
       <c r="L12" s="1">
-        <v>18.359917</v>
+        <v>18.359916999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1306.160000</v>
+        <v>1306.1600000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-205.724000</v>
+        <v>-205.72399999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>66106.180019</v>
+        <v>66106.180019000007</v>
       </c>
       <c r="Q12" s="1">
         <v>18.362828</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.650000</v>
+        <v>1318.65</v>
       </c>
       <c r="S12" s="1">
-        <v>-187.418000</v>
+        <v>-187.41800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>66116.684288</v>
+        <v>66116.684288000004</v>
       </c>
       <c r="V12" s="1">
-        <v>18.365746</v>
+        <v>18.365746000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.240000</v>
+        <v>1332.24</v>
       </c>
       <c r="X12" s="1">
-        <v>-173.496000</v>
+        <v>-173.49600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>66126.796228</v>
+        <v>66126.796228000007</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.368555</v>
+        <v>18.368555000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1350.070000</v>
+        <v>1350.07</v>
       </c>
       <c r="AC12" s="1">
-        <v>-171.006000</v>
+        <v>-171.006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>66137.337173</v>
+        <v>66137.337173000007</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.371483</v>
+        <v>18.371483000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.421000</v>
+        <v>-180.42099999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>66147.857814</v>
+        <v>66147.857814000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.374405</v>
+        <v>18.374404999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.943000</v>
+        <v>-209.94300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>66158.899256</v>
+        <v>66158.899256000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.377472</v>
+        <v>18.377472000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.780000</v>
+        <v>1406.78</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.323000</v>
+        <v>-253.32300000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>66169.616314</v>
+        <v>66169.616313999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.380449</v>
+        <v>18.380448999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.679000</v>
+        <v>-312.67899999999997</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>66180.324445</v>
+        <v>66180.324445000006</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.383423</v>
+        <v>18.383423000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.700000</v>
+        <v>1451.7</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.233000</v>
+        <v>-364.233</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>66191.005791</v>
+        <v>66191.005791000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.386390</v>
+        <v>18.386389999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.520000</v>
+        <v>1538.52</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.603000</v>
+        <v>-609.60299999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>66201.872639</v>
+        <v>66201.872638999994</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.389409</v>
+        <v>18.389409000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.240000</v>
+        <v>1695.24</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1048.180000</v>
+        <v>-1048.18</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>66212.101666</v>
+        <v>66212.101666000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.392250</v>
+        <v>18.392250000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.060000</v>
+        <v>1993.06</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1804.430000</v>
+        <v>-1804.43</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>66222.851429</v>
+        <v>66222.851429000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.395237</v>
+        <v>18.395237000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2384.160000</v>
+        <v>2384.16</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2670.950000</v>
+        <v>-2670.95</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>66233.354711</v>
+        <v>66233.354711000007</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.398154</v>
+        <v>18.398154000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2867.380000</v>
+        <v>2867.38</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3616.680000</v>
+        <v>-3616.68</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>66245.251751</v>
+        <v>66245.251751000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>18.401459</v>
+        <v>18.401458999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4266.800000</v>
+        <v>4266.8</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5882.280000</v>
+        <v>-5882.28</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>66074.993544</v>
+        <v>66074.993543999997</v>
       </c>
       <c r="B13" s="1">
-        <v>18.354165</v>
+        <v>18.354164999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="D13" s="1">
-        <v>-310.887000</v>
+        <v>-310.887</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>66085.628782</v>
       </c>
       <c r="G13" s="1">
-        <v>18.357119</v>
+        <v>18.357119000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.720000</v>
+        <v>1268.72</v>
       </c>
       <c r="I13" s="1">
-        <v>-268.963000</v>
+        <v>-268.96300000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>66096.395404</v>
+        <v>66096.395403999995</v>
       </c>
       <c r="L13" s="1">
-        <v>18.360110</v>
+        <v>18.360109999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1306.290000</v>
+        <v>1306.29</v>
       </c>
       <c r="N13" s="1">
-        <v>-206.003000</v>
+        <v>-206.00299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>66106.528701</v>
+        <v>66106.528701000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.362925</v>
+        <v>18.362925000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.670000</v>
+        <v>1318.67</v>
       </c>
       <c r="S13" s="1">
-        <v>-187.481000</v>
+        <v>-187.48099999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>66117.027983</v>
+        <v>66117.027983000007</v>
       </c>
       <c r="V13" s="1">
         <v>18.365841</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X13" s="1">
-        <v>-173.672000</v>
+        <v>-173.672</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>66127.143426</v>
+        <v>66127.143425999995</v>
       </c>
       <c r="AA13" s="1">
         <v>18.368651</v>
       </c>
       <c r="AB13" s="1">
-        <v>1350.160000</v>
+        <v>1350.16</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.946000</v>
+        <v>-170.946</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>66137.993877</v>
+        <v>66137.993877000001</v>
       </c>
       <c r="AF13" s="1">
         <v>18.371665</v>
       </c>
       <c r="AG13" s="1">
-        <v>1363.320000</v>
+        <v>1363.32</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.437000</v>
+        <v>-180.43700000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>66148.519974</v>
+        <v>66148.519973999995</v>
       </c>
       <c r="AK13" s="1">
         <v>18.374589</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.550000</v>
+        <v>1384.55</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.953000</v>
+        <v>-209.953</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>66159.305010</v>
+        <v>66159.305009999996</v>
       </c>
       <c r="AP13" s="1">
         <v>18.377585</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.740000</v>
+        <v>1406.74</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.325000</v>
+        <v>-253.32499999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>66170.054281</v>
+        <v>66170.054281000004</v>
       </c>
       <c r="AU13" s="1">
         <v>18.380571</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.678000</v>
+        <v>-312.678</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>66180.701932</v>
+        <v>66180.701931999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.383528</v>
+        <v>18.383527999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.660000</v>
+        <v>1451.66</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.267000</v>
+        <v>-364.267</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>66191.364429</v>
+        <v>66191.364428999994</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.386490</v>
+        <v>18.386489999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.588000</v>
+        <v>-609.58799999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>66202.248111</v>
+        <v>66202.248110999994</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.389513</v>
+        <v>18.389513000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.290000</v>
+        <v>1695.29</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1048.130000</v>
+        <v>-1048.1300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>66212.523266</v>
+        <v>66212.523266000004</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.392368</v>
+        <v>18.392368000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1992.930000</v>
+        <v>1992.93</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1804.560000</v>
+        <v>-1804.56</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>66223.047843</v>
+        <v>66223.047842999993</v>
       </c>
       <c r="BT13" s="1">
         <v>18.395291</v>
       </c>
       <c r="BU13" s="1">
-        <v>2384.500000</v>
+        <v>2384.5</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2670.540000</v>
+        <v>-2670.54</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>66233.794672</v>
+        <v>66233.794672000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.398276</v>
+        <v>18.398275999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2867.740000</v>
+        <v>2867.74</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3616.600000</v>
+        <v>-3616.6</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>66245.772094</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.401603</v>
+        <v>18.401603000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4286.500000</v>
+        <v>4286.5</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5868.000000</v>
+        <v>-5868</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>66075.676517</v>
       </c>
       <c r="B14" s="1">
-        <v>18.354355</v>
+        <v>18.354355000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1243.420000</v>
+        <v>1243.42</v>
       </c>
       <c r="D14" s="1">
-        <v>-310.965000</v>
+        <v>-310.96499999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>66086.319176</v>
+        <v>66086.319176000005</v>
       </c>
       <c r="G14" s="1">
-        <v>18.357311</v>
+        <v>18.357310999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.480000</v>
+        <v>1269.48</v>
       </c>
       <c r="I14" s="1">
-        <v>-268.310000</v>
+        <v>-268.31</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>66096.741127</v>
+        <v>66096.741127000001</v>
       </c>
       <c r="L14" s="1">
-        <v>18.360206</v>
+        <v>18.360206000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.210000</v>
+        <v>1306.21</v>
       </c>
       <c r="N14" s="1">
-        <v>-205.815000</v>
+        <v>-205.815</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>66106.876863</v>
+        <v>66106.876862999998</v>
       </c>
       <c r="Q14" s="1">
         <v>18.363021</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S14" s="1">
-        <v>-187.490000</v>
+        <v>-187.49</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>66117.371729</v>
+        <v>66117.371729000006</v>
       </c>
       <c r="V14" s="1">
-        <v>18.365937</v>
+        <v>18.365936999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.170000</v>
+        <v>1332.17</v>
       </c>
       <c r="X14" s="1">
-        <v>-173.443000</v>
+        <v>-173.44300000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>66127.798609</v>
+        <v>66127.798609000005</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.368833</v>
+        <v>18.368832999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.960000</v>
+        <v>1349.96</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.900000</v>
+        <v>-170.9</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>66138.368356</v>
+        <v>66138.368356000006</v>
       </c>
       <c r="AF14" s="1">
         <v>18.371769</v>
       </c>
       <c r="AG14" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.415000</v>
+        <v>-180.41499999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>66148.904902</v>
+        <v>66148.904901999995</v>
       </c>
       <c r="AK14" s="1">
         <v>18.374696</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.975000</v>
+        <v>-209.97499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>66159.687929</v>
+        <v>66159.687929000007</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.377691</v>
+        <v>18.377690999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.800000</v>
+        <v>1406.8</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.307000</v>
+        <v>-253.30699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>66170.420330</v>
+        <v>66170.420329999994</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.380672</v>
+        <v>18.380672000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.723000</v>
+        <v>-312.72300000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>66181.078859</v>
+        <v>66181.078859000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>18.383633</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.680000</v>
+        <v>1451.68</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.256000</v>
+        <v>-364.25599999999997</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>66191.789470</v>
+        <v>66191.789470000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.386608</v>
+        <v>18.386607999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.633000</v>
+        <v>-609.63300000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>66202.672227</v>
+        <v>66202.672227000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.389631</v>
+        <v>18.389631000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1048.220000</v>
+        <v>-1048.22</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>66212.922513</v>
+        <v>66212.922512999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.392478</v>
+        <v>18.392478000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.130000</v>
+        <v>1993.13</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1804.490000</v>
+        <v>-1804.49</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>66223.465476</v>
+        <v>66223.465475999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.395407</v>
+        <v>18.395406999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2384.670000</v>
+        <v>2384.67</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2670.700000</v>
+        <v>-2670.7</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>66234.211799</v>
+        <v>66234.211798999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.398392</v>
+        <v>18.398392000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2867.590000</v>
+        <v>2867.59</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3615.870000</v>
+        <v>-3615.87</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>66246.311737</v>
+        <v>66246.311736999996</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.401753</v>
+        <v>18.401752999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4266.970000</v>
+        <v>4266.97</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5871.670000</v>
+        <v>-5871.67</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>66076.019286</v>
+        <v>66076.019285999995</v>
       </c>
       <c r="B15" s="1">
-        <v>18.354450</v>
+        <v>18.35445</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.550000</v>
+        <v>1243.55</v>
       </c>
       <c r="D15" s="1">
-        <v>-310.838000</v>
+        <v>-310.83800000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>66086.663401</v>
+        <v>66086.663400999998</v>
       </c>
       <c r="G15" s="1">
-        <v>18.357407</v>
+        <v>18.357406999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.470000</v>
+        <v>1269.47</v>
       </c>
       <c r="I15" s="1">
-        <v>-269.837000</v>
+        <v>-269.83699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>66097.086826</v>
+        <v>66097.086825999999</v>
       </c>
       <c r="L15" s="1">
-        <v>18.360302</v>
+        <v>18.360302000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1306.310000</v>
+        <v>1306.31</v>
       </c>
       <c r="N15" s="1">
-        <v>-205.786000</v>
+        <v>-205.786</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>66107.539833</v>
+        <v>66107.539833000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.363206</v>
+        <v>18.363206000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.580000</v>
+        <v>1318.58</v>
       </c>
       <c r="S15" s="1">
-        <v>-187.443000</v>
+        <v>-187.44300000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>66118.022958</v>
+        <v>66118.022958000001</v>
       </c>
       <c r="V15" s="1">
-        <v>18.366117</v>
+        <v>18.366116999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.270000</v>
+        <v>1332.27</v>
       </c>
       <c r="X15" s="1">
-        <v>-173.537000</v>
+        <v>-173.53700000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>66128.188465</v>
+        <v>66128.188464999999</v>
       </c>
       <c r="AA15" s="1">
         <v>18.368941</v>
       </c>
       <c r="AB15" s="1">
-        <v>1350.080000</v>
+        <v>1350.08</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.956000</v>
+        <v>-170.95599999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>66138.710099</v>
+        <v>66138.710099000004</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.371864</v>
+        <v>18.371863999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.447000</v>
+        <v>-180.447</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>66149.252574</v>
+        <v>66149.252573999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.374792</v>
+        <v>18.374791999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.520000</v>
+        <v>1384.52</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.915000</v>
+        <v>-209.91499999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>66160.047990</v>
+        <v>66160.047990000006</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.377791</v>
+        <v>18.377790999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.780000</v>
+        <v>1406.78</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.316000</v>
+        <v>-253.316</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>66170.783411</v>
+        <v>66170.783410999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.380773</v>
+        <v>18.380773000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.684000</v>
+        <v>-312.68400000000003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>66181.493063</v>
+        <v>66181.493063000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.383748</v>
+        <v>18.383748000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.690000</v>
+        <v>1451.69</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.241000</v>
+        <v>-364.24099999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>66192.085581</v>
+        <v>66192.085581000007</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.386690</v>
+        <v>18.386690000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.460000</v>
+        <v>1538.46</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.588000</v>
+        <v>-609.58799999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>66203.022899</v>
+        <v>66203.022899000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.389729</v>
+        <v>18.389728999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.240000</v>
+        <v>1695.24</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1048.160000</v>
+        <v>-1048.1600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>66213.345136</v>
+        <v>66213.345136000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.392596</v>
+        <v>18.392596000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.090000</v>
+        <v>1993.09</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1804.380000</v>
+        <v>-1804.38</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>66223.880164</v>
+        <v>66223.880164000002</v>
       </c>
       <c r="BT15" s="1">
         <v>18.395522</v>
       </c>
       <c r="BU15" s="1">
-        <v>2384.490000</v>
+        <v>2384.4899999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2671.280000</v>
+        <v>-2671.28</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>66234.636883</v>
+        <v>66234.636882999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.398510</v>
+        <v>18.398510000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2867.570000</v>
+        <v>2867.57</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3615.980000</v>
+        <v>-3615.98</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>66246.850388</v>
+        <v>66246.850388000006</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.401903</v>
+        <v>18.401903000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4279.420000</v>
+        <v>4279.42</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5882.990000</v>
+        <v>-5882.99</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>66076.362521</v>
+        <v>66076.362521000003</v>
       </c>
       <c r="B16" s="1">
-        <v>18.354545</v>
+        <v>18.354545000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1243.200000</v>
+        <v>1243.2</v>
       </c>
       <c r="D16" s="1">
-        <v>-310.972000</v>
+        <v>-310.97199999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>66087.315639</v>
+        <v>66087.315638999993</v>
       </c>
       <c r="G16" s="1">
         <v>18.357588</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="I16" s="1">
-        <v>-269.461000</v>
+        <v>-269.46100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>66097.741546</v>
+        <v>66097.741546000005</v>
       </c>
       <c r="L16" s="1">
         <v>18.360484</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.270000</v>
+        <v>1306.27</v>
       </c>
       <c r="N16" s="1">
-        <v>-205.755000</v>
+        <v>-205.755</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>66107.921435</v>
+        <v>66107.921434999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.363312</v>
+        <v>18.363312000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.640000</v>
+        <v>1318.64</v>
       </c>
       <c r="S16" s="1">
-        <v>-187.387000</v>
+        <v>-187.387</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>66118.403389</v>
+        <v>66118.403388999999</v>
       </c>
       <c r="V16" s="1">
-        <v>18.366223</v>
+        <v>18.366223000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.150000</v>
+        <v>1332.15</v>
       </c>
       <c r="X16" s="1">
-        <v>-173.460000</v>
+        <v>-173.46</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>66128.537753</v>
+        <v>66128.537752999997</v>
       </c>
       <c r="AA16" s="1">
         <v>18.369038</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.990000</v>
+        <v>1349.99</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.930000</v>
+        <v>-170.93</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>66139.056308</v>
+        <v>66139.056307999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.371960</v>
+        <v>18.371960000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1363.340000</v>
+        <v>1363.34</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.409000</v>
+        <v>-180.40899999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>66149.602571</v>
+        <v>66149.602570999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.374890</v>
+        <v>18.374890000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.953000</v>
+        <v>-209.953</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>66160.468103</v>
+        <v>66160.468103000007</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.377908</v>
+        <v>18.377908000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.790000</v>
+        <v>1406.79</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.333000</v>
+        <v>-253.333</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>66171.272952</v>
+        <v>66171.272951999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.380909</v>
+        <v>18.380908999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1431.960000</v>
+        <v>1431.96</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.668000</v>
+        <v>-312.66800000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>66181.797591</v>
+        <v>66181.797590999995</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.383833</v>
+        <v>18.383832999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.660000</v>
+        <v>1451.66</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.235000</v>
+        <v>-364.23500000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>66192.449644</v>
+        <v>66192.449643999993</v>
       </c>
       <c r="BE16" s="1">
         <v>18.386792</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.470000</v>
+        <v>1538.47</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.568000</v>
+        <v>-609.56799999999998</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>66203.396349</v>
+        <v>66203.396349000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.389832</v>
+        <v>18.389831999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.240000</v>
+        <v>1695.24</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1048.130000</v>
+        <v>-1048.1300000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>66213.741935</v>
+        <v>66213.741934999998</v>
       </c>
       <c r="BO16" s="1">
         <v>18.392706</v>
       </c>
       <c r="BP16" s="1">
-        <v>1992.990000</v>
+        <v>1992.99</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1804.390000</v>
+        <v>-1804.39</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>66224.304707</v>
+        <v>66224.304707000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.395640</v>
+        <v>18.39564</v>
       </c>
       <c r="BU16" s="1">
-        <v>2385.020000</v>
+        <v>2385.02</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2670.680000</v>
+        <v>-2670.68</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>66235.084260</v>
+        <v>66235.084260000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.398635</v>
+        <v>18.398634999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2866.990000</v>
+        <v>2866.99</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3616.240000</v>
+        <v>-3616.24</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>66247.392483</v>
+        <v>66247.392483000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.402053</v>
+        <v>18.402052999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4278.220000</v>
+        <v>4278.22</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5864.020000</v>
+        <v>-5864.02</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>66077.018196</v>
+        <v>66077.018196000005</v>
       </c>
       <c r="B17" s="1">
         <v>18.354727</v>
       </c>
       <c r="C17" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-310.553000</v>
+        <v>-310.553</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>66087.695078</v>
+        <v>66087.695078000004</v>
       </c>
       <c r="G17" s="1">
-        <v>18.357693</v>
+        <v>18.357693000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.830000</v>
+        <v>1268.83</v>
       </c>
       <c r="I17" s="1">
-        <v>-268.937000</v>
+        <v>-268.93700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>66098.125977</v>
+        <v>66098.125977000003</v>
       </c>
       <c r="L17" s="1">
-        <v>18.360591</v>
+        <v>18.360590999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.490000</v>
+        <v>1306.49</v>
       </c>
       <c r="N17" s="1">
-        <v>-205.687000</v>
+        <v>-205.68700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>66108.268637</v>
+        <v>66108.268637000001</v>
       </c>
       <c r="Q17" s="1">
         <v>18.363408</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.690000</v>
+        <v>1318.69</v>
       </c>
       <c r="S17" s="1">
-        <v>-187.464000</v>
+        <v>-187.464</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>66118.746621</v>
+        <v>66118.746620999998</v>
       </c>
       <c r="V17" s="1">
-        <v>18.366319</v>
+        <v>18.366319000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X17" s="1">
-        <v>-173.293000</v>
+        <v>-173.29300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>66128.886832</v>
+        <v>66128.886832000004</v>
       </c>
       <c r="AA17" s="1">
         <v>18.369135</v>
       </c>
       <c r="AB17" s="1">
-        <v>1350.050000</v>
+        <v>1350.05</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.891000</v>
+        <v>-170.89099999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>66139.491794</v>
+        <v>66139.491794000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.372081</v>
+        <v>18.372081000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.362000</v>
+        <v>-180.36199999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>66150.034756</v>
+        <v>66150.034755999994</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.375010</v>
+        <v>18.37501</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.550000</v>
+        <v>1384.55</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.910000</v>
+        <v>-209.91</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>66160.769670</v>
+        <v>66160.769669999994</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.377992</v>
+        <v>18.377991999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.770000</v>
+        <v>1406.77</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.356000</v>
+        <v>-253.35599999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>66171.514504</v>
+        <v>66171.514504000006</v>
       </c>
       <c r="AU17" s="1">
         <v>18.380976</v>
       </c>
       <c r="AV17" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.700000</v>
+        <v>-312.7</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>66182.155706</v>
+        <v>66182.155706000005</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.383932</v>
+        <v>18.383932000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.700000</v>
+        <v>1451.7</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.196000</v>
+        <v>-364.19600000000003</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>66192.809771</v>
@@ -4501,1178 +4917,1178 @@
         <v>18.386892</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.520000</v>
+        <v>1538.52</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.585000</v>
+        <v>-609.58500000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>66203.773309</v>
+        <v>66203.773308999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>18.389937</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1048.100000</v>
+        <v>-1048.0999999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>66214.169488</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.392825</v>
+        <v>18.392824999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1992.950000</v>
+        <v>1992.95</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1804.360000</v>
+        <v>-1804.36</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>66224.711425</v>
+        <v>66224.711425000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.395753</v>
+        <v>18.395752999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2384.870000</v>
+        <v>2384.87</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2671.230000</v>
+        <v>-2671.23</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>66235.517298</v>
+        <v>66235.517298000006</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.398755</v>
+        <v>18.398755000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2867.140000</v>
+        <v>2867.14</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3615.720000</v>
+        <v>-3615.72</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>66247.930178</v>
+        <v>66247.930177999995</v>
       </c>
       <c r="CD17" s="1">
         <v>18.402203</v>
       </c>
       <c r="CE17" s="1">
-        <v>4265.370000</v>
+        <v>4265.37</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5880.600000</v>
+        <v>-5880.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>66077.384275</v>
+        <v>66077.384275000004</v>
       </c>
       <c r="B18" s="1">
-        <v>18.354829</v>
+        <v>18.354828999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.920000</v>
+        <v>1242.92</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.787000</v>
+        <v>-310.78699999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>66088.040325</v>
+        <v>66088.040324999994</v>
       </c>
       <c r="G18" s="1">
         <v>18.357789</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.470000</v>
+        <v>1269.47</v>
       </c>
       <c r="I18" s="1">
-        <v>-268.823000</v>
+        <v>-268.82299999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>66098.468184</v>
+        <v>66098.468183999998</v>
       </c>
       <c r="L18" s="1">
-        <v>18.360686</v>
+        <v>18.360686000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.480000</v>
+        <v>1306.48</v>
       </c>
       <c r="N18" s="1">
-        <v>-206.003000</v>
+        <v>-206.00299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>66108.616332</v>
+        <v>66108.616332000005</v>
       </c>
       <c r="Q18" s="1">
         <v>18.363505</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.630000</v>
+        <v>1318.63</v>
       </c>
       <c r="S18" s="1">
-        <v>-187.521000</v>
+        <v>-187.52099999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>66119.096303</v>
+        <v>66119.096302999998</v>
       </c>
       <c r="V18" s="1">
-        <v>18.366416</v>
+        <v>18.366416000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.210000</v>
+        <v>1332.21</v>
       </c>
       <c r="X18" s="1">
-        <v>-173.454000</v>
+        <v>-173.45400000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>66129.319344</v>
+        <v>66129.319344000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.369255</v>
+        <v>18.369254999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1350.090000</v>
+        <v>1350.09</v>
       </c>
       <c r="AC18" s="1">
-        <v>-171.009000</v>
+        <v>-171.00899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>66139.770229</v>
+        <v>66139.770229000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.372158</v>
+        <v>18.372157999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1363.340000</v>
+        <v>1363.34</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.424000</v>
+        <v>-180.42400000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>66150.309539</v>
+        <v>66150.309538999994</v>
       </c>
       <c r="AK18" s="1">
         <v>18.375086</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.560000</v>
+        <v>1384.56</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.884000</v>
+        <v>-209.88399999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>66161.126325</v>
+        <v>66161.126325000005</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.378091</v>
+        <v>18.378091000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.780000</v>
+        <v>1406.78</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.330000</v>
+        <v>-253.33</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>66171.876123</v>
+        <v>66171.876122999995</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.381077</v>
+        <v>18.381077000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.666000</v>
+        <v>-312.666</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>66182.515273</v>
+        <v>66182.515272999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.384032</v>
+        <v>18.384032000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.700000</v>
+        <v>1451.7</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.212000</v>
+        <v>-364.21199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>66193.532939</v>
+        <v>66193.532938999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.387092</v>
+        <v>18.387091999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.510000</v>
+        <v>1538.51</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.551000</v>
+        <v>-609.55100000000004</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>66204.523259</v>
+        <v>66204.523258999994</v>
       </c>
       <c r="BJ18" s="1">
         <v>18.390145</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.200000</v>
+        <v>1695.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1048.120000</v>
+        <v>-1048.1199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>66214.559310</v>
+        <v>66214.559309999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.392933</v>
+        <v>18.392932999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1992.970000</v>
+        <v>1992.97</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1804.280000</v>
+        <v>-1804.28</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>66225.128560</v>
+        <v>66225.128559999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.395869</v>
+        <v>18.395869000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2385.380000</v>
+        <v>2385.38</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2671.110000</v>
+        <v>-2671.11</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>66235.935923</v>
+        <v>66235.935922999997</v>
       </c>
       <c r="BY18" s="1">
         <v>18.398871</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2866.320000</v>
+        <v>2866.32</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3615.700000</v>
+        <v>-3615.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>66248.777843</v>
+        <v>66248.777843000003</v>
       </c>
       <c r="CD18" s="1">
         <v>18.402438</v>
       </c>
       <c r="CE18" s="1">
-        <v>4272.530000</v>
+        <v>4272.53</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5861.560000</v>
+        <v>-5861.56</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>66077.727516</v>
+        <v>66077.727515999999</v>
       </c>
       <c r="B19" s="1">
         <v>18.354924</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.190000</v>
+        <v>1243.19</v>
       </c>
       <c r="D19" s="1">
-        <v>-310.960000</v>
+        <v>-310.95999999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>66088.388485</v>
+        <v>66088.388485000003</v>
       </c>
       <c r="G19" s="1">
-        <v>18.357886</v>
+        <v>18.357886000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.550000</v>
+        <v>1269.55</v>
       </c>
       <c r="I19" s="1">
-        <v>-268.255000</v>
+        <v>-268.255</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>66098.814889</v>
+        <v>66098.814889000001</v>
       </c>
       <c r="L19" s="1">
         <v>18.360782</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.260000</v>
+        <v>1306.26</v>
       </c>
       <c r="N19" s="1">
-        <v>-205.866000</v>
+        <v>-205.86600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>66109.047882</v>
+        <v>66109.047881999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.363624</v>
+        <v>18.363624000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.650000</v>
+        <v>1318.65</v>
       </c>
       <c r="S19" s="1">
-        <v>-187.499000</v>
+        <v>-187.499</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>66119.523852</v>
+        <v>66119.523851999998</v>
       </c>
       <c r="V19" s="1">
-        <v>18.366534</v>
+        <v>18.366534000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1332.110000</v>
+        <v>1332.11</v>
       </c>
       <c r="X19" s="1">
-        <v>-173.550000</v>
+        <v>-173.55</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>66129.595614</v>
+        <v>66129.595614000005</v>
       </c>
       <c r="AA19" s="1">
         <v>18.369332</v>
       </c>
       <c r="AB19" s="1">
-        <v>1350.180000</v>
+        <v>1350.18</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.937000</v>
+        <v>-170.93700000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>66140.111297</v>
+        <v>66140.111296999996</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.372253</v>
+        <v>18.372253000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1363.330000</v>
+        <v>1363.33</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.439000</v>
+        <v>-180.43899999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>66150.657235</v>
+        <v>66150.657235000006</v>
       </c>
       <c r="AK19" s="1">
         <v>18.375183</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.550000</v>
+        <v>1384.55</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.980000</v>
+        <v>-209.98</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>66161.488868</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.378191</v>
+        <v>18.378191000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.740000</v>
+        <v>1406.74</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.319000</v>
+        <v>-253.31899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>66172.608678</v>
+        <v>66172.608678000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.381280</v>
+        <v>18.38128</v>
       </c>
       <c r="AV19" s="1">
-        <v>1431.940000</v>
+        <v>1431.94</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.698000</v>
+        <v>-312.69799999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>66183.230009</v>
+        <v>66183.230009000006</v>
       </c>
       <c r="AZ19" s="1">
         <v>18.384231</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.660000</v>
+        <v>1451.66</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>66193.918298</v>
+        <v>66193.918298000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.387200</v>
+        <v>18.3872</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.500000</v>
+        <v>1538.5</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.564000</v>
+        <v>-609.56399999999996</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>66204.955277</v>
+        <v>66204.955277000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.390265</v>
+        <v>18.390264999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.230000</v>
+        <v>1695.23</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>66214.978443</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.393050</v>
+        <v>18.393049999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1992.990000</v>
+        <v>1992.99</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1804.290000</v>
+        <v>-1804.29</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>66225.851233</v>
+        <v>66225.851232999994</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.396070</v>
+        <v>18.396070000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>2384.980000</v>
+        <v>2384.98</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2671.650000</v>
+        <v>-2671.65</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>66236.664060</v>
+        <v>66236.664059999996</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.399073</v>
+        <v>18.399073000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2866.620000</v>
+        <v>2866.62</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3615.790000</v>
+        <v>-3615.79</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>66249.008978</v>
+        <v>66249.008977999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.402502</v>
+        <v>18.402501999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>4272.130000</v>
+        <v>4272.13</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5861.260000</v>
+        <v>-5861.26</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>66078.069715</v>
+        <v>66078.069715000005</v>
       </c>
       <c r="B20" s="1">
-        <v>18.355019</v>
+        <v>18.355018999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1243.470000</v>
+        <v>1243.47</v>
       </c>
       <c r="D20" s="1">
-        <v>-310.984000</v>
+        <v>-310.98399999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>66088.799204</v>
+        <v>66088.799203999995</v>
       </c>
       <c r="G20" s="1">
-        <v>18.358000</v>
+        <v>18.358000000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.780000</v>
+        <v>1268.78</v>
       </c>
       <c r="I20" s="1">
-        <v>-269.439000</v>
+        <v>-269.43900000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>66099.236519</v>
+        <v>66099.236518999998</v>
       </c>
       <c r="L20" s="1">
         <v>18.360899</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.440000</v>
+        <v>1306.44</v>
       </c>
       <c r="N20" s="1">
-        <v>-205.862000</v>
+        <v>-205.86199999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>66109.320650</v>
+        <v>66109.320649999994</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.363700</v>
+        <v>18.363700000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.580000</v>
+        <v>1318.58</v>
       </c>
       <c r="S20" s="1">
-        <v>-187.496000</v>
+        <v>-187.49600000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>66119.803101</v>
+        <v>66119.803100999998</v>
       </c>
       <c r="V20" s="1">
         <v>18.366612</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.140000</v>
+        <v>1332.14</v>
       </c>
       <c r="X20" s="1">
-        <v>-173.480000</v>
+        <v>-173.48</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>66129.945294</v>
+        <v>66129.945294000005</v>
       </c>
       <c r="AA20" s="1">
         <v>18.369429</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.900000</v>
+        <v>1349.9</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.935000</v>
+        <v>-170.935</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>66140.456016</v>
+        <v>66140.456015999996</v>
       </c>
       <c r="AF20" s="1">
         <v>18.372349</v>
       </c>
       <c r="AG20" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.454000</v>
+        <v>-180.45400000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>66151.007906</v>
+        <v>66151.007905999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.375280</v>
+        <v>18.37528</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.550000</v>
+        <v>1384.55</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.951000</v>
+        <v>-209.95099999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>66162.209061</v>
+        <v>66162.209061000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.378391</v>
+        <v>18.378391000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.335000</v>
+        <v>-253.33500000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>66172.973269</v>
+        <v>66172.973268999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>18.381381</v>
+        <v>18.381381000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.666000</v>
+        <v>-312.666</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>66183.592584</v>
+        <v>66183.592583999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>18.384331</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.640000</v>
+        <v>1451.64</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.210000</v>
+        <v>-364.21</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>66194.278394</v>
+        <v>66194.278393999994</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.387300</v>
+        <v>18.3873</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.531000</v>
+        <v>-609.53099999999995</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>66205.277684</v>
+        <v>66205.277684000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>18.390355</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1048.110000</v>
+        <v>-1048.1099999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>66215.695646</v>
+        <v>66215.695645999993</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.393249</v>
+        <v>18.393249000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1992.950000</v>
+        <v>1992.95</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1804.410000</v>
+        <v>-1804.41</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>66225.961378</v>
+        <v>66225.961378000007</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.396100</v>
+        <v>18.396100000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2385.130000</v>
+        <v>2385.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2671.750000</v>
+        <v>-2671.75</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>66236.786034</v>
+        <v>66236.786034000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.399107</v>
+        <v>18.399107000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2866.810000</v>
+        <v>2866.81</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3615.790000</v>
+        <v>-3615.79</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>66249.530272</v>
+        <v>66249.530272000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.402647</v>
+        <v>18.402647000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>4264.140000</v>
+        <v>4264.1400000000003</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5875.360000</v>
+        <v>-5875.36</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>66078.627746</v>
+        <v>66078.627745999998</v>
       </c>
       <c r="B21" s="1">
-        <v>18.355174</v>
+        <v>18.355174000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-310.860000</v>
+        <v>-310.86</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>66089.085366</v>
+        <v>66089.085365999999</v>
       </c>
       <c r="G21" s="1">
         <v>18.358079</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-268.416000</v>
+        <v>-268.416</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>66099.523176</v>
+        <v>66099.523176000002</v>
       </c>
       <c r="L21" s="1">
         <v>18.360979</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.040000</v>
+        <v>1306.04</v>
       </c>
       <c r="N21" s="1">
-        <v>-206.156000</v>
+        <v>-206.15600000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>66109.670857</v>
+        <v>66109.670857000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.363797</v>
+        <v>18.363797000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.610000</v>
+        <v>1318.61</v>
       </c>
       <c r="S21" s="1">
-        <v>-187.459000</v>
+        <v>-187.459</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>66120.142364</v>
+        <v>66120.142363999999</v>
       </c>
       <c r="V21" s="1">
-        <v>18.366706</v>
+        <v>18.366706000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.230000</v>
+        <v>1332.23</v>
       </c>
       <c r="X21" s="1">
-        <v>-173.661000</v>
+        <v>-173.661</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>66130.289550</v>
+        <v>66130.289550000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.369525</v>
+        <v>18.369524999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1350.010000</v>
+        <v>1350.01</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.956000</v>
+        <v>-170.95599999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>66141.144961</v>
+        <v>66141.144960999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.372540</v>
+        <v>18.372540000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1363.350000</v>
+        <v>1363.35</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.437000</v>
+        <v>-180.43700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>66151.703299</v>
+        <v>66151.703299000001</v>
       </c>
       <c r="AK21" s="1">
         <v>18.375473</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.540000</v>
+        <v>1384.54</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.933000</v>
+        <v>-209.93299999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>66162.568661</v>
+        <v>66162.568660999998</v>
       </c>
       <c r="AP21" s="1">
         <v>18.378491</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.800000</v>
+        <v>1406.8</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.371000</v>
+        <v>-253.37100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>66173.335814</v>
+        <v>66173.335814000005</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.381482</v>
+        <v>18.381481999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1431.930000</v>
+        <v>1431.93</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.678000</v>
+        <v>-312.678</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>66183.948717</v>
+        <v>66183.948717000007</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.384430</v>
+        <v>18.384429999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.720000</v>
+        <v>1451.72</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.169000</v>
+        <v>-364.16899999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>66194.947000</v>
+        <v>66194.947</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.387485</v>
+        <v>18.387485000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.535000</v>
+        <v>-609.53499999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>66205.735978</v>
+        <v>66205.735977999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.390482</v>
+        <v>18.390481999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.270000</v>
+        <v>1695.27</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1048.100000</v>
+        <v>-1048.0999999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>66215.809261</v>
+        <v>66215.809261000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.393280</v>
+        <v>18.393280000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.000000</v>
+        <v>1993</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1804.150000</v>
+        <v>-1804.15</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>66226.395841</v>
+        <v>66226.395841000005</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.396221</v>
+        <v>18.396221000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2385.530000</v>
+        <v>2385.5300000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2671.680000</v>
+        <v>-2671.68</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>66237.231968</v>
+        <v>66237.231967999993</v>
       </c>
       <c r="BY21" s="1">
         <v>18.399231</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2866.770000</v>
+        <v>2866.77</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3616.190000</v>
+        <v>-3616.19</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>66250.049551</v>
+        <v>66250.049551000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.402792</v>
+        <v>18.402792000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>4267.510000</v>
+        <v>4267.51</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5868.870000</v>
+        <v>-5868.87</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>66078.977921</v>
+        <v>66078.977920999998</v>
       </c>
       <c r="B22" s="1">
-        <v>18.355272</v>
+        <v>18.355271999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.830000</v>
+        <v>1242.83</v>
       </c>
       <c r="D22" s="1">
-        <v>-310.575000</v>
+        <v>-310.57499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>66089.435541</v>
+        <v>66089.435540999999</v>
       </c>
       <c r="G22" s="1">
-        <v>18.358177</v>
+        <v>18.358177000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.040000</v>
+        <v>1269.04</v>
       </c>
       <c r="I22" s="1">
-        <v>-268.825000</v>
+        <v>-268.82499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>66099.871366</v>
+        <v>66099.871366000007</v>
       </c>
       <c r="L22" s="1">
         <v>18.361075</v>
       </c>
       <c r="M22" s="1">
-        <v>1306.070000</v>
+        <v>1306.07</v>
       </c>
       <c r="N22" s="1">
-        <v>-206.006000</v>
+        <v>-206.006</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>66110.018548</v>
+        <v>66110.018547999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.363894</v>
+        <v>18.363893999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.640000</v>
+        <v>1318.64</v>
       </c>
       <c r="S22" s="1">
-        <v>-187.295000</v>
+        <v>-187.29499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>66120.735579</v>
@@ -5681,1223 +6097,1224 @@
         <v>18.366871</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X22" s="1">
-        <v>-173.624000</v>
+        <v>-173.624</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>66130.988381</v>
+        <v>66130.988381000003</v>
       </c>
       <c r="AA22" s="1">
         <v>18.369719</v>
       </c>
       <c r="AB22" s="1">
-        <v>1350.160000</v>
+        <v>1350.16</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.822000</v>
+        <v>-170.822</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>66141.487695</v>
+        <v>66141.487695000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.372635</v>
+        <v>18.372634999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1363.340000</v>
+        <v>1363.34</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.506000</v>
+        <v>-180.506</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>66152.052368</v>
+        <v>66152.052368000004</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.375570</v>
+        <v>18.37557</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.956000</v>
+        <v>-209.95599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>66162.928260</v>
+        <v>66162.928260000001</v>
       </c>
       <c r="AP22" s="1">
         <v>18.378591</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.800000</v>
+        <v>1406.8</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.347000</v>
+        <v>-253.34700000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>66174.016325</v>
+        <v>66174.016325000004</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.381671</v>
+        <v>18.381671000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.640000</v>
+        <v>-312.64</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>66184.615335</v>
+        <v>66184.615334999995</v>
       </c>
       <c r="AZ22" s="1">
         <v>18.384615</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.720000</v>
+        <v>1451.72</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.170000</v>
+        <v>-364.17</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>66195.397369</v>
+        <v>66195.397368999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.387610</v>
+        <v>18.387609999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.520000</v>
+        <v>1538.52</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.565000</v>
+        <v>-609.56500000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>66206.035066</v>
+        <v>66206.035065999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.390565</v>
+        <v>18.390564999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.270000</v>
+        <v>1695.27</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1048.060000</v>
+        <v>-1048.06</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>66216.221404</v>
+        <v>66216.221403999996</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.393395</v>
+        <v>18.393395000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1992.910000</v>
+        <v>1992.91</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1804.350000</v>
+        <v>-1804.35</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>66226.825870</v>
+        <v>66226.825870000001</v>
       </c>
       <c r="BT22" s="1">
         <v>18.396341</v>
       </c>
       <c r="BU22" s="1">
-        <v>2385.320000</v>
+        <v>2385.3200000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2672.080000</v>
+        <v>-2672.08</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>66237.663457</v>
+        <v>66237.663457000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.399351</v>
+        <v>18.399350999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2867.090000</v>
+        <v>2867.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3616.040000</v>
+        <v>-3616.04</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>66250.600145</v>
+        <v>66250.600145000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.402944</v>
+        <v>18.402944000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4272.590000</v>
+        <v>4272.59</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5860.750000</v>
+        <v>-5860.75</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>66079.320130</v>
+        <v>66079.320129999993</v>
       </c>
       <c r="B23" s="1">
-        <v>18.355367</v>
+        <v>18.355367000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1243.100000</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-310.956000</v>
+        <v>-310.95600000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>66089.779763</v>
+        <v>66089.779762999999</v>
       </c>
       <c r="G23" s="1">
-        <v>18.358272</v>
+        <v>18.358271999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.750000</v>
+        <v>1268.75</v>
       </c>
       <c r="I23" s="1">
-        <v>-269.404000</v>
+        <v>-269.404</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>66100.218101</v>
+        <v>66100.218101000006</v>
       </c>
       <c r="L23" s="1">
         <v>18.361172</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.260000</v>
+        <v>1306.26</v>
       </c>
       <c r="N23" s="1">
-        <v>-206.221000</v>
+        <v>-206.221</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>66110.714905</v>
+        <v>66110.714905000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.364087</v>
+        <v>18.364087000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.660000</v>
+        <v>1318.66</v>
       </c>
       <c r="S23" s="1">
-        <v>-187.423000</v>
+        <v>-187.423</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>66120.844203</v>
+        <v>66120.844203000001</v>
       </c>
       <c r="V23" s="1">
-        <v>18.366901</v>
+        <v>18.366900999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X23" s="1">
-        <v>-173.592000</v>
+        <v>-173.59200000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>66131.335580</v>
+        <v>66131.335579999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.369815</v>
+        <v>18.369814999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1350.020000</v>
+        <v>1350.02</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.832000</v>
+        <v>-170.83199999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>66141.831919</v>
+        <v>66141.831919000004</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.372731</v>
+        <v>18.372731000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1363.290000</v>
+        <v>1363.29</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.439000</v>
+        <v>-180.43899999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>66152.399220</v>
+        <v>66152.399220000007</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.375666</v>
+        <v>18.375665999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.520000</v>
+        <v>1384.52</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.935000</v>
+        <v>-209.935</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>66163.599346</v>
+        <v>66163.599346000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.378778</v>
+        <v>18.378778000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.800000</v>
+        <v>1406.8</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.330000</v>
+        <v>-253.33</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>66174.428499</v>
+        <v>66174.428499000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.381786</v>
+        <v>18.381786000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.699000</v>
+        <v>-312.69900000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>66185.028997</v>
+        <v>66185.028997000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.384730</v>
+        <v>18.384730000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.670000</v>
+        <v>1451.67</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.209000</v>
+        <v>-364.209</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>66195.757465</v>
+        <v>66195.757465000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.387710</v>
+        <v>18.387709999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.490000</v>
+        <v>1538.49</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.536000</v>
+        <v>-609.53599999999994</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>66206.423962</v>
+        <v>66206.423962000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>18.390673</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1048.090000</v>
+        <v>-1048.0899999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>66216.617211</v>
+        <v>66216.617211000004</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.393505</v>
+        <v>18.393505000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1992.970000</v>
+        <v>1992.97</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1804.210000</v>
+        <v>-1804.21</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>66227.258383</v>
+        <v>66227.258382999993</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.396461</v>
+        <v>18.396460999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2385.580000</v>
+        <v>2385.58</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2672.230000</v>
+        <v>-2672.23</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>66238.102416</v>
+        <v>66238.102415999994</v>
       </c>
       <c r="BY23" s="1">
         <v>18.399473</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2866.330000</v>
+        <v>2866.33</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3615.310000</v>
+        <v>-3615.31</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>66251.130368</v>
+        <v>66251.130367999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.403092</v>
+        <v>18.403092000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4263.110000</v>
+        <v>4263.1099999999997</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5874.520000</v>
+        <v>-5874.52</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>66079.662369</v>
+        <v>66079.662368999998</v>
       </c>
       <c r="B24" s="1">
-        <v>18.355462</v>
+        <v>18.355461999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.990000</v>
+        <v>1242.99</v>
       </c>
       <c r="D24" s="1">
-        <v>-310.547000</v>
+        <v>-310.54700000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>66090.454856</v>
+        <v>66090.454855999997</v>
       </c>
       <c r="G24" s="1">
-        <v>18.358460</v>
+        <v>18.358460000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.590000</v>
+        <v>1269.5899999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-268.921000</v>
+        <v>-268.92099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>66100.911013</v>
+        <v>66100.911013000004</v>
       </c>
       <c r="L24" s="1">
-        <v>18.361364</v>
+        <v>18.361363999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.070000</v>
+        <v>1306.07</v>
       </c>
       <c r="N24" s="1">
-        <v>-205.833000</v>
+        <v>-205.833</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>66111.064583</v>
+        <v>66111.064582999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.364185</v>
+        <v>18.364184999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.670000</v>
+        <v>1318.67</v>
       </c>
       <c r="S24" s="1">
-        <v>-187.464000</v>
+        <v>-187.464</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>66121.177018</v>
+        <v>66121.177018000002</v>
       </c>
       <c r="V24" s="1">
-        <v>18.366994</v>
+        <v>18.366993999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X24" s="1">
-        <v>-173.606000</v>
+        <v>-173.60599999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>66131.688236</v>
+        <v>66131.688236000002</v>
       </c>
       <c r="AA24" s="1">
         <v>18.369913</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.950000</v>
+        <v>1349.95</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.678000</v>
+        <v>-170.678</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>66142.492128</v>
+        <v>66142.492127999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.372914</v>
+        <v>18.372914000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>1363.380000</v>
+        <v>1363.38</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.411000</v>
+        <v>-180.411</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>66153.071760</v>
+        <v>66153.071760000006</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.375853</v>
+        <v>18.375852999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.530000</v>
+        <v>1384.53</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.968000</v>
+        <v>-209.96799999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>66164.039793</v>
+        <v>66164.039793000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.378900</v>
+        <v>18.378900000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.740000</v>
+        <v>1406.74</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.296000</v>
+        <v>-253.29599999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>66174.793059</v>
+        <v>66174.793059000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.381887</v>
+        <v>18.381886999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.930000</v>
+        <v>1431.93</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.666000</v>
+        <v>-312.666</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>66185.411444</v>
+        <v>66185.411443999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.384837</v>
+        <v>18.384837000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.670000</v>
+        <v>1451.67</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.246000</v>
+        <v>-364.24599999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>66196.119048</v>
+        <v>66196.119047999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.387811</v>
+        <v>18.387810999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.480000</v>
+        <v>1538.48</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.523000</v>
+        <v>-609.52300000000002</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>66206.843049</v>
+        <v>66206.843049000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.390790</v>
+        <v>18.390789999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.190000</v>
+        <v>1695.19</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1048.080000</v>
+        <v>-1048.08</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>66217.042779</v>
+        <v>66217.042778999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.393623</v>
+        <v>18.393623000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1992.980000</v>
+        <v>1992.98</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1804.150000</v>
+        <v>-1804.15</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>66227.663117</v>
+        <v>66227.663117000004</v>
       </c>
       <c r="BT24" s="1">
         <v>18.396573</v>
       </c>
       <c r="BU24" s="1">
-        <v>2385.360000</v>
+        <v>2385.36</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2672.370000</v>
+        <v>-2672.37</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>66238.508638</v>
+        <v>66238.508637999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.399586</v>
+        <v>18.399585999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2866.460000</v>
+        <v>2866.46</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3615.920000</v>
+        <v>-3615.92</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>66251.648190</v>
+        <v>66251.648190000007</v>
       </c>
       <c r="CD24" s="1">
         <v>18.403236</v>
       </c>
       <c r="CE24" s="1">
-        <v>4275.570000</v>
+        <v>4275.57</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5882.760000</v>
+        <v>-5882.76</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>66080.342892</v>
+        <v>66080.342892000001</v>
       </c>
       <c r="B25" s="1">
-        <v>18.355651</v>
+        <v>18.355651000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1243.340000</v>
+        <v>1243.3399999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-310.657000</v>
+        <v>-310.65699999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>66090.810979</v>
+        <v>66090.810979000002</v>
       </c>
       <c r="G25" s="1">
         <v>18.358559</v>
       </c>
       <c r="H25" s="1">
-        <v>1270.230000</v>
+        <v>1270.23</v>
       </c>
       <c r="I25" s="1">
-        <v>-269.295000</v>
+        <v>-269.29500000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>66101.256948</v>
+        <v>66101.256947999995</v>
       </c>
       <c r="L25" s="1">
-        <v>18.361460</v>
+        <v>18.361460000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.350000</v>
+        <v>1306.3499999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-205.843000</v>
+        <v>-205.84299999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>66111.412776</v>
+        <v>66111.412775999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.364281</v>
+        <v>18.364280999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.590000</v>
+        <v>1318.59</v>
       </c>
       <c r="S25" s="1">
-        <v>-187.543000</v>
+        <v>-187.54300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>66121.836697</v>
+        <v>66121.836697000006</v>
       </c>
       <c r="V25" s="1">
-        <v>18.367177</v>
+        <v>18.367177000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="X25" s="1">
-        <v>-173.559000</v>
+        <v>-173.559</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>66132.350927</v>
+        <v>66132.350927000007</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.370097</v>
+        <v>18.370097000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.920000</v>
+        <v>1349.92</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.832000</v>
+        <v>-170.83199999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>66142.861149</v>
+        <v>66142.861149000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.373017</v>
+        <v>18.373017000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1363.400000</v>
+        <v>1363.4</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.348000</v>
+        <v>-180.34800000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>66153.445743</v>
+        <v>66153.445743000004</v>
       </c>
       <c r="AK25" s="1">
         <v>18.375957</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.520000</v>
+        <v>1384.52</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.899000</v>
+        <v>-209.899</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>66164.400396</v>
+        <v>66164.400395999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.379000</v>
+        <v>18.379000000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.760000</v>
+        <v>1406.76</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.298000</v>
+        <v>-253.298</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>66175.159108</v>
+        <v>66175.159108000007</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.381989</v>
+        <v>18.381989000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.960000</v>
+        <v>1431.96</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.657000</v>
+        <v>-312.65699999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>66185.769524</v>
+        <v>66185.769524000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>18.384936</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.640000</v>
+        <v>1451.64</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.190000</v>
+        <v>-364.19</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>66196.551591</v>
+        <v>66196.551590999996</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.387931</v>
+        <v>18.387930999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.500000</v>
+        <v>1538.5</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.506000</v>
+        <v>-609.50599999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>66207.172393</v>
+        <v>66207.172393000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>18.390881</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1048.090000</v>
+        <v>-1048.0899999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>66217.438126</v>
+        <v>66217.438125999994</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.393733</v>
+        <v>18.393733000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1992.770000</v>
+        <v>1992.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1804.140000</v>
+        <v>-1804.14</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>66228.096126</v>
+        <v>66228.096126000004</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.396693</v>
+        <v>18.396692999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2385.590000</v>
+        <v>2385.59</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2672.470000</v>
+        <v>-2672.47</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>66238.934246</v>
+        <v>66238.934246000004</v>
       </c>
       <c r="BY25" s="1">
         <v>18.399704</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2866.750000</v>
+        <v>2866.75</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3615.720000</v>
+        <v>-3615.72</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>66252.165986</v>
+        <v>66252.165986000007</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.403379</v>
+        <v>18.403379000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4282.840000</v>
+        <v>4282.84</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5870.640000</v>
+        <v>-5870.64</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>66080.685149</v>
+        <v>66080.685148999997</v>
       </c>
       <c r="B26" s="1">
         <v>18.355746</v>
       </c>
       <c r="C26" s="1">
-        <v>1243.470000</v>
+        <v>1243.47</v>
       </c>
       <c r="D26" s="1">
-        <v>-310.818000</v>
+        <v>-310.81799999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>66091.158147</v>
+        <v>66091.158146999995</v>
       </c>
       <c r="G26" s="1">
-        <v>18.358655</v>
+        <v>18.358654999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="I26" s="1">
-        <v>-268.934000</v>
+        <v>-268.93400000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>66101.601908</v>
+        <v>66101.601907999997</v>
       </c>
       <c r="L26" s="1">
         <v>18.361556</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.280000</v>
+        <v>1306.28</v>
       </c>
       <c r="N26" s="1">
-        <v>-205.619000</v>
+        <v>-205.619</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>66112.074474</v>
+        <v>66112.074473999994</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.364465</v>
+        <v>18.364464999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.580000</v>
+        <v>1318.58</v>
       </c>
       <c r="S26" s="1">
-        <v>-187.406000</v>
+        <v>-187.40600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>66122.207740</v>
+        <v>66122.207739999998</v>
       </c>
       <c r="V26" s="1">
-        <v>18.367280</v>
+        <v>18.367280000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.970000</v>
+        <v>1331.97</v>
       </c>
       <c r="X26" s="1">
-        <v>-173.533000</v>
+        <v>-173.53299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>66132.731354</v>
+        <v>66132.731354000003</v>
       </c>
       <c r="AA26" s="1">
         <v>18.370203</v>
       </c>
       <c r="AB26" s="1">
-        <v>1350.080000</v>
+        <v>1350.08</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.963000</v>
+        <v>-170.96299999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>66143.206831</v>
+        <v>66143.206831000003</v>
       </c>
       <c r="AF26" s="1">
         <v>18.373113</v>
       </c>
       <c r="AG26" s="1">
-        <v>1363.350000</v>
+        <v>1363.35</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.394000</v>
+        <v>-180.39400000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>66153.794432</v>
+        <v>66153.794431999995</v>
       </c>
       <c r="AK26" s="1">
         <v>18.376054</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.550000</v>
+        <v>1384.55</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.926000</v>
+        <v>-209.92599999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>66164.759526</v>
+        <v>66164.759525999994</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.379100</v>
+        <v>18.379100000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.770000</v>
+        <v>1406.77</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.372000</v>
+        <v>-253.37200000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>66175.586658</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.382107</v>
+        <v>18.382107000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.930000</v>
+        <v>1431.93</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.669000</v>
+        <v>-312.66899999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>66186.193140</v>
+        <v>66186.193140000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>18.385054</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.690000</v>
+        <v>1451.69</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.205000</v>
+        <v>-364.20499999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>66196.839734</v>
+        <v>66196.839733999994</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.388011</v>
+        <v>18.388010999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.500000</v>
+        <v>1538.5</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.526000</v>
+        <v>-609.52599999999995</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>66207.549383</v>
+        <v>66207.549383000005</v>
       </c>
       <c r="BJ26" s="1">
-        <v>18.390986</v>
+        <v>18.390986000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1048.060000</v>
+        <v>-1048.06</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>66217.856715</v>
+        <v>66217.856715000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.393849</v>
+        <v>18.393848999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1992.840000</v>
+        <v>1992.84</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1804.290000</v>
+        <v>-1804.29</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>66228.497388</v>
+        <v>66228.497388000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.396805</v>
+        <v>18.396805000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2385.060000</v>
+        <v>2385.06</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2672.890000</v>
+        <v>-2672.89</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>66239.695069</v>
+        <v>66239.695068999994</v>
       </c>
       <c r="BY26" s="1">
         <v>18.399915</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2867.290000</v>
+        <v>2867.29</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3615.240000</v>
+        <v>-3615.24</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>66252.683308</v>
+        <v>66252.683308000007</v>
       </c>
       <c r="CD26" s="1">
         <v>18.403523</v>
       </c>
       <c r="CE26" s="1">
-        <v>4270.280000</v>
+        <v>4270.28</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5865.420000</v>
+        <v>-5865.42</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>